--- a/Descargas/R15_Corte De Apelaciones De Santiago_Términos Corte_2020-Diciembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De Santiago_Términos Corte_2020-Diciembre.xlsx
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="13">
